--- a/data/pca/factorExposure/factorExposure_2016-06-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.009744082341164129</v>
+        <v>0.01204651274212688</v>
       </c>
       <c r="C2">
-        <v>-0.05234109570424986</v>
+        <v>0.04017383823915664</v>
       </c>
       <c r="D2">
-        <v>-0.04189558574690039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06142206082220005</v>
+      </c>
+      <c r="E2">
+        <v>-0.07998510993303867</v>
+      </c>
+      <c r="F2">
+        <v>-0.06070299777918105</v>
+      </c>
+      <c r="G2">
+        <v>0.0440404912614614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0388220435298541</v>
+        <v>0.02399851933224411</v>
       </c>
       <c r="C3">
-        <v>-0.1135031504497513</v>
+        <v>0.07158164118697026</v>
       </c>
       <c r="D3">
-        <v>-0.09134880524225172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07842552112967284</v>
+      </c>
+      <c r="E3">
+        <v>-0.0653172900997246</v>
+      </c>
+      <c r="F3">
+        <v>0.0249931423317202</v>
+      </c>
+      <c r="G3">
+        <v>-0.03573770145683534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05816909592465611</v>
+        <v>0.05593085432757285</v>
       </c>
       <c r="C4">
-        <v>-0.06084910145324296</v>
+        <v>0.06418307398458652</v>
       </c>
       <c r="D4">
-        <v>-0.03459725512505748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05971393593279401</v>
+      </c>
+      <c r="E4">
+        <v>-0.08035035436823144</v>
+      </c>
+      <c r="F4">
+        <v>-0.07397677593730163</v>
+      </c>
+      <c r="G4">
+        <v>-0.03538359020492642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03825263620144116</v>
+        <v>0.03454634451467099</v>
       </c>
       <c r="C6">
-        <v>-0.03840548024128933</v>
+        <v>0.02996597772091173</v>
       </c>
       <c r="D6">
-        <v>-0.03061689465697705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06105006015681202</v>
+      </c>
+      <c r="E6">
+        <v>-0.0815329759442338</v>
+      </c>
+      <c r="F6">
+        <v>-0.04943692896368718</v>
+      </c>
+      <c r="G6">
+        <v>-0.0216082387160703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02012440236930425</v>
+        <v>0.01720411658342564</v>
       </c>
       <c r="C7">
-        <v>-0.04515652280556774</v>
+        <v>0.03790207393811424</v>
       </c>
       <c r="D7">
-        <v>0.003098503168406978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03809906836581586</v>
+      </c>
+      <c r="E7">
+        <v>-0.05773890925502755</v>
+      </c>
+      <c r="F7">
+        <v>-0.09369943135552701</v>
+      </c>
+      <c r="G7">
+        <v>-0.008884622664621871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004225719464767438</v>
+        <v>0.002600110739032259</v>
       </c>
       <c r="C8">
-        <v>-0.0337825575910747</v>
+        <v>0.03085950901042539</v>
       </c>
       <c r="D8">
-        <v>-0.02551313196173575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03360493204338186</v>
+      </c>
+      <c r="E8">
+        <v>-0.0553698473231902</v>
+      </c>
+      <c r="F8">
+        <v>-0.03109340348473491</v>
+      </c>
+      <c r="G8">
+        <v>-0.006048750379522948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03194752976761429</v>
+        <v>0.03568466527472953</v>
       </c>
       <c r="C9">
-        <v>-0.04769552782530091</v>
+        <v>0.05111296524669025</v>
       </c>
       <c r="D9">
-        <v>-0.01842219899258771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04299133403468726</v>
+      </c>
+      <c r="E9">
+        <v>-0.06853668826970781</v>
+      </c>
+      <c r="F9">
+        <v>-0.07979331326951644</v>
+      </c>
+      <c r="G9">
+        <v>-0.02132640545307644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08360885291722228</v>
+        <v>0.1040433219677946</v>
       </c>
       <c r="C10">
-        <v>0.1887570779355353</v>
+        <v>-0.1939021468484117</v>
       </c>
       <c r="D10">
-        <v>0.008747501228699276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008846675237393084</v>
+      </c>
+      <c r="E10">
+        <v>-0.04417663691773158</v>
+      </c>
+      <c r="F10">
+        <v>-0.03321118973025924</v>
+      </c>
+      <c r="G10">
+        <v>-0.01231527442615884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03893787239574753</v>
+        <v>0.03489816283205478</v>
       </c>
       <c r="C11">
-        <v>-0.05383145563471201</v>
+        <v>0.04914405421262922</v>
       </c>
       <c r="D11">
-        <v>-0.01719900844676361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0337975668255883</v>
+      </c>
+      <c r="E11">
+        <v>-0.02253264309728443</v>
+      </c>
+      <c r="F11">
+        <v>-0.06366323868564737</v>
+      </c>
+      <c r="G11">
+        <v>-0.01687565382666592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04045430856803815</v>
+        <v>0.03709783096023377</v>
       </c>
       <c r="C12">
-        <v>-0.04883492318327386</v>
+        <v>0.04639894283091757</v>
       </c>
       <c r="D12">
-        <v>-0.006247241557805536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02754753615190969</v>
+      </c>
+      <c r="E12">
+        <v>-0.03075541560394063</v>
+      </c>
+      <c r="F12">
+        <v>-0.06423207185511426</v>
+      </c>
+      <c r="G12">
+        <v>-0.0133547828386278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01132375546189235</v>
+        <v>0.009932285920514441</v>
       </c>
       <c r="C13">
-        <v>-0.05142744642269285</v>
+        <v>0.04118356540068082</v>
       </c>
       <c r="D13">
-        <v>-0.01476787028492114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04997915289698522</v>
+      </c>
+      <c r="E13">
+        <v>-0.0928667410673561</v>
+      </c>
+      <c r="F13">
+        <v>-0.08666704346354294</v>
+      </c>
+      <c r="G13">
+        <v>-0.01911636873143038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00629233005629464</v>
+        <v>0.003876614191949808</v>
       </c>
       <c r="C14">
-        <v>-0.04079268394618035</v>
+        <v>0.03321507042532861</v>
       </c>
       <c r="D14">
-        <v>0.009281555558456826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02529532911164258</v>
+      </c>
+      <c r="E14">
+        <v>-0.04593904743198617</v>
+      </c>
+      <c r="F14">
+        <v>-0.08799749267267762</v>
+      </c>
+      <c r="G14">
+        <v>0.004760164693346748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002651349050251204</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004852278614581829</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00727059892196141</v>
+      </c>
+      <c r="E15">
+        <v>-0.003568993354773503</v>
+      </c>
+      <c r="F15">
+        <v>-0.005852403320665416</v>
+      </c>
+      <c r="G15">
+        <v>-6.220556877790144e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03583203534275087</v>
+        <v>0.03312254573410387</v>
       </c>
       <c r="C16">
-        <v>-0.04852886750542282</v>
+        <v>0.04506630776569382</v>
       </c>
       <c r="D16">
-        <v>-0.01160989384432042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02782877428776898</v>
+      </c>
+      <c r="E16">
+        <v>-0.03646884690776382</v>
+      </c>
+      <c r="F16">
+        <v>-0.06407283081781201</v>
+      </c>
+      <c r="G16">
+        <v>-0.002113632252583591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01877526449479275</v>
+        <v>0.01453020998092811</v>
       </c>
       <c r="C19">
-        <v>-0.06487104163819299</v>
+        <v>0.04741746686889016</v>
       </c>
       <c r="D19">
-        <v>-0.08443851944223217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08857848973831406</v>
+      </c>
+      <c r="E19">
+        <v>-0.1045097809883504</v>
+      </c>
+      <c r="F19">
+        <v>-0.06157336959395209</v>
+      </c>
+      <c r="G19">
+        <v>0.02799764236911238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0141003454710305</v>
+        <v>0.01178852629528122</v>
       </c>
       <c r="C20">
-        <v>-0.04754930193422439</v>
+        <v>0.0387491510356603</v>
       </c>
       <c r="D20">
-        <v>-0.01291367144516169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03559953540827032</v>
+      </c>
+      <c r="E20">
+        <v>-0.07403795543820221</v>
+      </c>
+      <c r="F20">
+        <v>-0.06876123147652509</v>
+      </c>
+      <c r="G20">
+        <v>-0.005975380197695852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008370271025189339</v>
+        <v>0.00794015106137946</v>
       </c>
       <c r="C21">
-        <v>-0.04922246605447904</v>
+        <v>0.04178787265564409</v>
       </c>
       <c r="D21">
-        <v>-0.03765172282031037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06429388073376791</v>
+      </c>
+      <c r="E21">
+        <v>-0.1152521370482987</v>
+      </c>
+      <c r="F21">
+        <v>-0.1078796938582236</v>
+      </c>
+      <c r="G21">
+        <v>-0.005418498732111268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0009330892047587796</v>
+        <v>0.002439792160519964</v>
       </c>
       <c r="C22">
-        <v>-0.0004953059873298967</v>
+        <v>0.02484298139155552</v>
       </c>
       <c r="D22">
-        <v>-0.001450190325728001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0422132396610724</v>
+      </c>
+      <c r="E22">
+        <v>-0.03706551666297403</v>
+      </c>
+      <c r="F22">
+        <v>-0.00949429280561394</v>
+      </c>
+      <c r="G22">
+        <v>-0.03747627846648789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.000938685647244467</v>
+        <v>0.002511219896587316</v>
       </c>
       <c r="C23">
-        <v>-0.0004952527758047139</v>
+        <v>0.0249994113964754</v>
       </c>
       <c r="D23">
-        <v>-0.001457398756161798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04187695728478535</v>
+      </c>
+      <c r="E23">
+        <v>-0.03733703970207929</v>
+      </c>
+      <c r="F23">
+        <v>-0.009271140854769435</v>
+      </c>
+      <c r="G23">
+        <v>-0.03767927852118887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03224213562986167</v>
+        <v>0.03275483379881723</v>
       </c>
       <c r="C24">
-        <v>-0.05059730527874683</v>
+        <v>0.05286017700904982</v>
       </c>
       <c r="D24">
-        <v>-0.0120815068584397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02808680152439746</v>
+      </c>
+      <c r="E24">
+        <v>-0.03774082476931648</v>
+      </c>
+      <c r="F24">
+        <v>-0.07057982990551298</v>
+      </c>
+      <c r="G24">
+        <v>-0.009496247623961732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04588543850230001</v>
+        <v>0.04255583263250885</v>
       </c>
       <c r="C25">
-        <v>-0.06300647116230765</v>
+        <v>0.05740553524455906</v>
       </c>
       <c r="D25">
-        <v>-0.004048613113567647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02727909760142087</v>
+      </c>
+      <c r="E25">
+        <v>-0.02954388669160645</v>
+      </c>
+      <c r="F25">
+        <v>-0.07371087355234003</v>
+      </c>
+      <c r="G25">
+        <v>-0.02713417124096246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01439063784588606</v>
+        <v>0.01405319335465141</v>
       </c>
       <c r="C26">
-        <v>-0.01928742018791283</v>
+        <v>0.01783855602652868</v>
       </c>
       <c r="D26">
-        <v>0.0001547233971252291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02379676462938877</v>
+      </c>
+      <c r="E26">
+        <v>-0.04618158867444947</v>
+      </c>
+      <c r="F26">
+        <v>-0.06336374325605522</v>
+      </c>
+      <c r="G26">
+        <v>0.01370446740059357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1005072200133035</v>
+        <v>0.1403315951219984</v>
       </c>
       <c r="C28">
-        <v>0.2386787753985847</v>
+        <v>-0.2467161752948728</v>
       </c>
       <c r="D28">
-        <v>0.013879360687634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02741385032997505</v>
+      </c>
+      <c r="E28">
+        <v>-0.05975119980953884</v>
+      </c>
+      <c r="F28">
+        <v>-0.0531386034419546</v>
+      </c>
+      <c r="G28">
+        <v>-0.0220784409851306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006617460329616297</v>
+        <v>0.005319115800919754</v>
       </c>
       <c r="C29">
-        <v>-0.03304738915722324</v>
+        <v>0.02950210502932617</v>
       </c>
       <c r="D29">
-        <v>0.01402150438738128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0190346386621634</v>
+      </c>
+      <c r="E29">
+        <v>-0.04592977622520004</v>
+      </c>
+      <c r="F29">
+        <v>-0.08215585600706486</v>
+      </c>
+      <c r="G29">
+        <v>-0.009111837393362391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04239242520325933</v>
+        <v>0.0387422326588899</v>
       </c>
       <c r="C30">
-        <v>-0.05486878833119004</v>
+        <v>0.05723384375932075</v>
       </c>
       <c r="D30">
-        <v>-0.07222694042534203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1009751734566603</v>
+      </c>
+      <c r="E30">
+        <v>-0.06975084010731407</v>
+      </c>
+      <c r="F30">
+        <v>-0.07781056780563714</v>
+      </c>
+      <c r="G30">
+        <v>0.0142412042746213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05410141020431039</v>
+        <v>0.05517500805938071</v>
       </c>
       <c r="C31">
-        <v>-0.04668155924278477</v>
+        <v>0.06174491411957985</v>
       </c>
       <c r="D31">
-        <v>0.02345992834770067</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.007266153158248166</v>
+      </c>
+      <c r="E31">
+        <v>-0.06900854933204337</v>
+      </c>
+      <c r="F31">
+        <v>-0.06353480151455927</v>
+      </c>
+      <c r="G31">
+        <v>-0.04693823769597951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001791418497306142</v>
+        <v>0.004775859319768143</v>
       </c>
       <c r="C32">
-        <v>-0.04078212881076596</v>
+        <v>0.03332206276226848</v>
       </c>
       <c r="D32">
-        <v>-0.04877732958916962</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05644059707152491</v>
+      </c>
+      <c r="E32">
+        <v>-0.0537744682925335</v>
+      </c>
+      <c r="F32">
+        <v>-0.06385826861001302</v>
+      </c>
+      <c r="G32">
+        <v>0.01269895807264068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0252493440121826</v>
+        <v>0.02248828411536827</v>
       </c>
       <c r="C33">
-        <v>-0.06241247904418662</v>
+        <v>0.05431726432150685</v>
       </c>
       <c r="D33">
-        <v>-0.05101070789229729</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07953273218944236</v>
+      </c>
+      <c r="E33">
+        <v>-0.08435588404214504</v>
+      </c>
+      <c r="F33">
+        <v>-0.1092784926396744</v>
+      </c>
+      <c r="G33">
+        <v>-0.0203534057471721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04431197330387142</v>
+        <v>0.04027271300343375</v>
       </c>
       <c r="C34">
-        <v>-0.06685908426762917</v>
+        <v>0.0647951242070189</v>
       </c>
       <c r="D34">
-        <v>-0.01843520485738139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03817918562839848</v>
+      </c>
+      <c r="E34">
+        <v>-0.01125032770197384</v>
+      </c>
+      <c r="F34">
+        <v>-0.07711403006463166</v>
+      </c>
+      <c r="G34">
+        <v>-0.01260275689662362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01410396305768738</v>
+        <v>0.01318083577742177</v>
       </c>
       <c r="C36">
-        <v>-0.0166661218142115</v>
+        <v>0.01285438762528121</v>
       </c>
       <c r="D36">
-        <v>-0.0001324146916979961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02637747168908604</v>
+      </c>
+      <c r="E36">
+        <v>-0.05530569759358234</v>
+      </c>
+      <c r="F36">
+        <v>-0.06816366056177131</v>
+      </c>
+      <c r="G36">
+        <v>-0.008906353432311219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0281947443319211</v>
+        <v>0.02242400199243434</v>
       </c>
       <c r="C38">
-        <v>-0.02923472827175958</v>
+        <v>0.02234496847973558</v>
       </c>
       <c r="D38">
-        <v>0.008423019325363743</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02355564998158039</v>
+      </c>
+      <c r="E38">
+        <v>-0.04619637885970582</v>
+      </c>
+      <c r="F38">
+        <v>-0.05360798721186396</v>
+      </c>
+      <c r="G38">
+        <v>-0.002470893351781997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04216637239136789</v>
+        <v>0.03769519576770863</v>
       </c>
       <c r="C39">
-        <v>-0.06654913823727431</v>
+        <v>0.06437608315524267</v>
       </c>
       <c r="D39">
-        <v>-0.02174367986682916</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05246449195383718</v>
+      </c>
+      <c r="E39">
+        <v>-0.04169253249960051</v>
+      </c>
+      <c r="F39">
+        <v>-0.08034913275398921</v>
+      </c>
+      <c r="G39">
+        <v>0.01232815987913686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01164204349337367</v>
+        <v>0.0125613283775233</v>
       </c>
       <c r="C40">
-        <v>-0.05161344302024884</v>
+        <v>0.03734272740596065</v>
       </c>
       <c r="D40">
-        <v>-0.01674359844254672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0329190957208642</v>
+      </c>
+      <c r="E40">
+        <v>-0.08138147454163158</v>
+      </c>
+      <c r="F40">
+        <v>-0.06314461169012055</v>
+      </c>
+      <c r="G40">
+        <v>-0.03772187597038728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02038156852077267</v>
+        <v>0.01859867752849023</v>
       </c>
       <c r="C41">
-        <v>-0.01252416705479756</v>
+        <v>0.0102522607705</v>
       </c>
       <c r="D41">
-        <v>-0.001891754384957892</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01703291061314964</v>
+      </c>
+      <c r="E41">
+        <v>-0.05459891395008763</v>
+      </c>
+      <c r="F41">
+        <v>-0.05846336561084495</v>
+      </c>
+      <c r="G41">
+        <v>-0.002559746910251255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03667780464587757</v>
+        <v>0.02841419917548138</v>
       </c>
       <c r="C43">
-        <v>-0.03382575201614078</v>
+        <v>0.02488686744322266</v>
       </c>
       <c r="D43">
-        <v>-0.0297021426329532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.044437075079505</v>
+      </c>
+      <c r="E43">
+        <v>-0.06873938482564709</v>
+      </c>
+      <c r="F43">
+        <v>-0.06516492856196537</v>
+      </c>
+      <c r="G43">
+        <v>-0.02022500534862056</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01065107347449625</v>
+        <v>0.01244541234764623</v>
       </c>
       <c r="C44">
-        <v>-0.06590214935043387</v>
+        <v>0.04897944133666757</v>
       </c>
       <c r="D44">
-        <v>-0.01219094778325122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0380252422285554</v>
+      </c>
+      <c r="E44">
+        <v>-0.08567388148350827</v>
+      </c>
+      <c r="F44">
+        <v>-0.06660275911955604</v>
+      </c>
+      <c r="G44">
+        <v>0.007968218134851768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006786721352896823</v>
+        <v>0.007987009843571953</v>
       </c>
       <c r="C46">
-        <v>-0.02969153723812294</v>
+        <v>0.02925600970650428</v>
       </c>
       <c r="D46">
-        <v>0.0151834994552925</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01408151547296067</v>
+      </c>
+      <c r="E46">
+        <v>-0.05571471243712658</v>
+      </c>
+      <c r="F46">
+        <v>-0.09626050766044691</v>
+      </c>
+      <c r="G46">
+        <v>-0.002271656238176888</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08093502679058021</v>
+        <v>0.08644455281999253</v>
       </c>
       <c r="C47">
-        <v>-0.07333011788511644</v>
+        <v>0.08268696558917553</v>
       </c>
       <c r="D47">
-        <v>0.02400942104829235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01382867112118878</v>
+      </c>
+      <c r="E47">
+        <v>-0.07172794137262002</v>
+      </c>
+      <c r="F47">
+        <v>-0.06890173600600928</v>
+      </c>
+      <c r="G47">
+        <v>-0.05190945595048259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01755615736612517</v>
+        <v>0.01550399433441583</v>
       </c>
       <c r="C48">
-        <v>-0.01605741136948598</v>
+        <v>0.01683748985002173</v>
       </c>
       <c r="D48">
-        <v>0.0147744443557639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01507933494496329</v>
+      </c>
+      <c r="E48">
+        <v>-0.06631571872914048</v>
+      </c>
+      <c r="F48">
+        <v>-0.08499392788081586</v>
+      </c>
+      <c r="G48">
+        <v>-0.008105805345378135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07841954888490434</v>
+        <v>0.06997407320760869</v>
       </c>
       <c r="C50">
-        <v>-0.08239691770828361</v>
+        <v>0.07612125862297156</v>
       </c>
       <c r="D50">
-        <v>0.02420723253206654</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0008573883481339264</v>
+      </c>
+      <c r="E50">
+        <v>-0.07590330965516581</v>
+      </c>
+      <c r="F50">
+        <v>-0.04836164252958679</v>
+      </c>
+      <c r="G50">
+        <v>-0.06888938114765508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01370912800250648</v>
+        <v>0.009651738725691951</v>
       </c>
       <c r="C51">
-        <v>-0.05066046176768578</v>
+        <v>0.03225934014620817</v>
       </c>
       <c r="D51">
-        <v>-0.02892453775208789</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04876139438202946</v>
+      </c>
+      <c r="E51">
+        <v>-0.04378790281128363</v>
+      </c>
+      <c r="F51">
+        <v>-0.07056766069608514</v>
+      </c>
+      <c r="G51">
+        <v>0.02021170278187253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07802761438754446</v>
+        <v>0.09198556966680439</v>
       </c>
       <c r="C53">
-        <v>-0.080385742179933</v>
+        <v>0.08929068545710542</v>
       </c>
       <c r="D53">
-        <v>0.03952657292443171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04081398502974338</v>
+      </c>
+      <c r="E53">
+        <v>-0.06902147774722597</v>
+      </c>
+      <c r="F53">
+        <v>-0.07800771483533571</v>
+      </c>
+      <c r="G53">
+        <v>-0.0644902078151099</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0300968566363861</v>
+        <v>0.02722622631976338</v>
       </c>
       <c r="C54">
-        <v>-0.03137456681445427</v>
+        <v>0.02868817673663454</v>
       </c>
       <c r="D54">
-        <v>-0.005959490456826681</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03138611790267626</v>
+      </c>
+      <c r="E54">
+        <v>-0.05370642885964733</v>
+      </c>
+      <c r="F54">
+        <v>-0.09250002381871879</v>
+      </c>
+      <c r="G54">
+        <v>-0.01008398419044418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07289388060863293</v>
+        <v>0.0839781137907372</v>
       </c>
       <c r="C55">
-        <v>-0.06156552084844995</v>
+        <v>0.07252393499772349</v>
       </c>
       <c r="D55">
-        <v>0.04811747639389036</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04750982199240254</v>
+      </c>
+      <c r="E55">
+        <v>-0.05118203355728396</v>
+      </c>
+      <c r="F55">
+        <v>-0.05378617369962634</v>
+      </c>
+      <c r="G55">
+        <v>-0.05324855748171424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1418544155900432</v>
+        <v>0.1456864775470623</v>
       </c>
       <c r="C56">
-        <v>-0.1010498029052289</v>
+        <v>0.1107912557121012</v>
       </c>
       <c r="D56">
-        <v>0.0375803972972916</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04294762549170177</v>
+      </c>
+      <c r="E56">
+        <v>-0.05243078226594864</v>
+      </c>
+      <c r="F56">
+        <v>-0.03903336173226538</v>
+      </c>
+      <c r="G56">
+        <v>-0.05970155248195978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001685660700703123</v>
+        <v>-0.001091796416991514</v>
       </c>
       <c r="C57">
-        <v>0.01167142642047281</v>
+        <v>-0.006863774565273414</v>
       </c>
       <c r="D57">
-        <v>-0.002929537798229221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.002054718141517994</v>
+      </c>
+      <c r="E57">
+        <v>-0.002187651197180928</v>
+      </c>
+      <c r="F57">
+        <v>-0.00566214412694257</v>
+      </c>
+      <c r="G57">
+        <v>-0.00289821006746865</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04204473206402822</v>
+        <v>0.0251886832236128</v>
       </c>
       <c r="C58">
-        <v>-0.01683778162131205</v>
+        <v>0.0184586122161223</v>
       </c>
       <c r="D58">
-        <v>-0.6394190191410973</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3910786256575461</v>
+      </c>
+      <c r="E58">
+        <v>-0.6350214684951463</v>
+      </c>
+      <c r="F58">
+        <v>0.58287458297789</v>
+      </c>
+      <c r="G58">
+        <v>0.1018325935931804</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1375629898658413</v>
+        <v>0.1469372392094813</v>
       </c>
       <c r="C59">
-        <v>0.1941863239820061</v>
+        <v>-0.1850001753357713</v>
       </c>
       <c r="D59">
-        <v>-0.0161909914550056</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.024114267441652</v>
+      </c>
+      <c r="E59">
+        <v>-0.02572281056352246</v>
+      </c>
+      <c r="F59">
+        <v>-0.01923178114288144</v>
+      </c>
+      <c r="G59">
+        <v>0.03112851079950157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3073549851195637</v>
+        <v>0.2802975841361202</v>
       </c>
       <c r="C60">
-        <v>-0.1057524679556221</v>
+        <v>0.1031244091186255</v>
       </c>
       <c r="D60">
-        <v>-0.1715081013771617</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2453503313335153</v>
+      </c>
+      <c r="E60">
+        <v>0.2596216429930141</v>
+      </c>
+      <c r="F60">
+        <v>0.07543486292885422</v>
+      </c>
+      <c r="G60">
+        <v>-0.04553591305981298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04016065470137239</v>
+        <v>0.03902455866056732</v>
       </c>
       <c r="C61">
-        <v>-0.0641698907063242</v>
+        <v>0.06042890587474312</v>
       </c>
       <c r="D61">
-        <v>-0.01724243192761104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04429731863254587</v>
+      </c>
+      <c r="E61">
+        <v>-0.04598152505261026</v>
+      </c>
+      <c r="F61">
+        <v>-0.07103462641970032</v>
+      </c>
+      <c r="G61">
+        <v>-0.01266260616002878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01437585099962051</v>
+        <v>0.01393095086063537</v>
       </c>
       <c r="C63">
-        <v>-0.03473444045784343</v>
+        <v>0.03205095630882751</v>
       </c>
       <c r="D63">
-        <v>0.009866828002967853</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01959402623937075</v>
+      </c>
+      <c r="E63">
+        <v>-0.0572435990058943</v>
+      </c>
+      <c r="F63">
+        <v>-0.06341302095901161</v>
+      </c>
+      <c r="G63">
+        <v>-0.02821037709718146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04732224969507905</v>
+        <v>0.0549311971863296</v>
       </c>
       <c r="C64">
-        <v>-0.04811691477257471</v>
+        <v>0.05714200497519706</v>
       </c>
       <c r="D64">
-        <v>-0.007783104809090144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01040595446421237</v>
+      </c>
+      <c r="E64">
+        <v>-0.04020540617675781</v>
+      </c>
+      <c r="F64">
+        <v>-0.08251584622846089</v>
+      </c>
+      <c r="G64">
+        <v>-0.01213273600595706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08413287571869131</v>
+        <v>0.0677908593656625</v>
       </c>
       <c r="C65">
-        <v>-0.03262544860849661</v>
+        <v>0.03065190040864305</v>
       </c>
       <c r="D65">
-        <v>-0.05057553971365352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08280860778732549</v>
+      </c>
+      <c r="E65">
+        <v>-0.0439223991317188</v>
+      </c>
+      <c r="F65">
+        <v>0.0002808855976681973</v>
+      </c>
+      <c r="G65">
+        <v>-0.001285538080331643</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05801279918357905</v>
+        <v>0.04926615100598731</v>
       </c>
       <c r="C66">
-        <v>-0.09288042673099785</v>
+        <v>0.08368343244427456</v>
       </c>
       <c r="D66">
-        <v>-0.04382797196982903</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07760134436214246</v>
+      </c>
+      <c r="E66">
+        <v>-0.04881681190520771</v>
+      </c>
+      <c r="F66">
+        <v>-0.08260808454955258</v>
+      </c>
+      <c r="G66">
+        <v>-0.004158028948842624</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05045823689673393</v>
+        <v>0.04443109568664385</v>
       </c>
       <c r="C67">
-        <v>-0.03163235606084192</v>
+        <v>0.02784075642219812</v>
       </c>
       <c r="D67">
-        <v>0.0114103320661506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.009536330092071615</v>
+      </c>
+      <c r="E67">
+        <v>-0.02456533611335205</v>
+      </c>
+      <c r="F67">
+        <v>-0.04516753185024507</v>
+      </c>
+      <c r="G67">
+        <v>-0.009552726138540493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1369701230934792</v>
+        <v>0.1561099036040207</v>
       </c>
       <c r="C68">
-        <v>0.2782865078589627</v>
+        <v>-0.2442938777199719</v>
       </c>
       <c r="D68">
-        <v>0.01920536734084148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02116295444393038</v>
+      </c>
+      <c r="E68">
+        <v>-0.04172850342221136</v>
+      </c>
+      <c r="F68">
+        <v>-0.01211047890538826</v>
+      </c>
+      <c r="G68">
+        <v>-0.00965106423441015</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08772891654556352</v>
+        <v>0.08573336381066528</v>
       </c>
       <c r="C69">
-        <v>-0.07259166051134004</v>
+        <v>0.08984697234619321</v>
       </c>
       <c r="D69">
-        <v>0.03305338857789183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.004989193678877166</v>
+      </c>
+      <c r="E69">
+        <v>-0.05631491015111129</v>
+      </c>
+      <c r="F69">
+        <v>-0.08719429955275346</v>
+      </c>
+      <c r="G69">
+        <v>-0.03065908425107162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1237869469418583</v>
+        <v>0.1465607355760903</v>
       </c>
       <c r="C71">
-        <v>0.2464080121879439</v>
+        <v>-0.2342944086784419</v>
       </c>
       <c r="D71">
-        <v>-0.01381663768925636</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003714477252441939</v>
+      </c>
+      <c r="E71">
+        <v>-0.06594004463066794</v>
+      </c>
+      <c r="F71">
+        <v>-0.04804896221097979</v>
+      </c>
+      <c r="G71">
+        <v>-0.03890859169199724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08872375391029705</v>
+        <v>0.09795264772053101</v>
       </c>
       <c r="C72">
-        <v>-0.05848053355332974</v>
+        <v>0.05891248568481076</v>
       </c>
       <c r="D72">
-        <v>-0.01211466450066652</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03339210065845236</v>
+      </c>
+      <c r="E72">
+        <v>-0.02555057859016382</v>
+      </c>
+      <c r="F72">
+        <v>-0.06604878248073139</v>
+      </c>
+      <c r="G72">
+        <v>-0.03489902800371064</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.403575503952207</v>
+        <v>0.3433651349916249</v>
       </c>
       <c r="C73">
-        <v>-0.05585777192136887</v>
+        <v>0.07066349664593843</v>
       </c>
       <c r="D73">
-        <v>-0.3979156257496298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4893101650372045</v>
+      </c>
+      <c r="E73">
+        <v>0.4671503369730571</v>
+      </c>
+      <c r="F73">
+        <v>0.2174772606047786</v>
+      </c>
+      <c r="G73">
+        <v>-0.1053184891235476</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1023910267845283</v>
+        <v>0.1080169828508984</v>
       </c>
       <c r="C74">
-        <v>-0.09784461329904311</v>
+        <v>0.09802492680054783</v>
       </c>
       <c r="D74">
-        <v>0.02042952219848828</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03073131985084755</v>
+      </c>
+      <c r="E74">
+        <v>-0.06811713244911201</v>
+      </c>
+      <c r="F74">
+        <v>-0.03756197204208298</v>
+      </c>
+      <c r="G74">
+        <v>-0.07266422875744946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2506290508293607</v>
+        <v>0.2555176899631107</v>
       </c>
       <c r="C75">
-        <v>-0.1124432575013335</v>
+        <v>0.1361974333351464</v>
       </c>
       <c r="D75">
-        <v>0.09043559164944925</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1255512538236778</v>
+      </c>
+      <c r="E75">
+        <v>-0.06305329855663414</v>
+      </c>
+      <c r="F75">
+        <v>-0.01704298324265274</v>
+      </c>
+      <c r="G75">
+        <v>-0.07840133373914472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1095073524054028</v>
+        <v>0.1245125127290844</v>
       </c>
       <c r="C76">
-        <v>-0.09114838015711905</v>
+        <v>0.1000191721852747</v>
       </c>
       <c r="D76">
-        <v>0.05163372299741641</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06042189349125818</v>
+      </c>
+      <c r="E76">
+        <v>-0.07901213375232863</v>
+      </c>
+      <c r="F76">
+        <v>-0.05941694463010853</v>
+      </c>
+      <c r="G76">
+        <v>-0.05821975933259393</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07440376426897254</v>
+        <v>0.05879573109456623</v>
       </c>
       <c r="C77">
-        <v>-0.05876344486808146</v>
+        <v>0.06971716835598217</v>
       </c>
       <c r="D77">
-        <v>-0.05162224389902889</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0614052654994152</v>
+      </c>
+      <c r="E77">
+        <v>-0.09611320443767782</v>
+      </c>
+      <c r="F77">
+        <v>-0.1079138049532073</v>
+      </c>
+      <c r="G77">
+        <v>0.1432067686557341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04591830355853199</v>
+        <v>0.04236073739364662</v>
       </c>
       <c r="C78">
-        <v>-0.0516325421663537</v>
+        <v>0.05758328735969945</v>
       </c>
       <c r="D78">
-        <v>-0.0280119750622545</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06432542231354428</v>
+      </c>
+      <c r="E78">
+        <v>-0.05276016116576954</v>
+      </c>
+      <c r="F78">
+        <v>-0.08323339232382522</v>
+      </c>
+      <c r="G78">
+        <v>-0.008129908019150367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0277886535585262</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04515681199291914</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05995358781877598</v>
+      </c>
+      <c r="E79">
+        <v>-0.06658896646051808</v>
+      </c>
+      <c r="F79">
+        <v>-0.03005564473712327</v>
+      </c>
+      <c r="G79">
+        <v>-0.07988981928200846</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03982036826401499</v>
+        <v>0.03084790303950553</v>
       </c>
       <c r="C80">
-        <v>-0.05085975405639687</v>
+        <v>0.05079283393534299</v>
       </c>
       <c r="D80">
-        <v>-0.02546534808607891</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03791981718615853</v>
+      </c>
+      <c r="E80">
+        <v>-0.0164016895939294</v>
+      </c>
+      <c r="F80">
+        <v>-0.0323582842049456</v>
+      </c>
+      <c r="G80">
+        <v>0.04482171618745901</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1390219429940552</v>
+        <v>0.1387952373151835</v>
       </c>
       <c r="C81">
-        <v>-0.0820208111758346</v>
+        <v>0.09737513892108327</v>
       </c>
       <c r="D81">
-        <v>0.07660830268930913</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1036197895805759</v>
+      </c>
+      <c r="E81">
+        <v>-0.0812065002845838</v>
+      </c>
+      <c r="F81">
+        <v>-0.005144229043924485</v>
+      </c>
+      <c r="G81">
+        <v>-0.05292595496777854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1653428201944044</v>
+        <v>0.2052816539811784</v>
       </c>
       <c r="C82">
-        <v>-0.09354323182349407</v>
+        <v>0.156368190201778</v>
       </c>
       <c r="D82">
-        <v>0.1445183646257498</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2153568238845465</v>
+      </c>
+      <c r="E82">
+        <v>-0.00871201571867935</v>
+      </c>
+      <c r="F82">
+        <v>-0.1080801897140852</v>
+      </c>
+      <c r="G82">
+        <v>-0.0533664812747246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03737973727419385</v>
+        <v>0.02606073853171542</v>
       </c>
       <c r="C83">
-        <v>-0.02949601471258325</v>
+        <v>0.0421670651389042</v>
       </c>
       <c r="D83">
-        <v>-0.03425819421597281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03267415268750314</v>
+      </c>
+      <c r="E83">
+        <v>-0.02351805823218424</v>
+      </c>
+      <c r="F83">
+        <v>-0.04171750082204576</v>
+      </c>
+      <c r="G83">
+        <v>0.02108384522440234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001872807820293598</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.000842991038851091</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001040800344109703</v>
+      </c>
+      <c r="E84">
+        <v>-0.0007570254399691874</v>
+      </c>
+      <c r="F84">
+        <v>-0.0008438905504211809</v>
+      </c>
+      <c r="G84">
+        <v>0.00030094777644856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2159311521577068</v>
+        <v>0.2008902405778621</v>
       </c>
       <c r="C85">
-        <v>-0.108614927178643</v>
+        <v>0.1198033201837711</v>
       </c>
       <c r="D85">
-        <v>0.1190616200097742</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09723613512685837</v>
+      </c>
+      <c r="E85">
+        <v>0.00641112907844297</v>
+      </c>
+      <c r="F85">
+        <v>0.01040521372287738</v>
+      </c>
+      <c r="G85">
+        <v>-0.1368819472743245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0064098184691667</v>
+        <v>0.008629047102610128</v>
       </c>
       <c r="C86">
-        <v>-0.03033793623888065</v>
+        <v>0.02148519056577634</v>
       </c>
       <c r="D86">
-        <v>-0.03296128276894488</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05399317611786431</v>
+      </c>
+      <c r="E86">
+        <v>-0.06900638815452199</v>
+      </c>
+      <c r="F86">
+        <v>-0.1228288244285799</v>
+      </c>
+      <c r="G86">
+        <v>0.008840461300237874</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02251030345326286</v>
+        <v>0.02154096421840111</v>
       </c>
       <c r="C87">
-        <v>-0.005999486691867113</v>
+        <v>0.01451601770202462</v>
       </c>
       <c r="D87">
-        <v>-0.08359063085348475</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08421328327477623</v>
+      </c>
+      <c r="E87">
+        <v>-0.1199167725149966</v>
+      </c>
+      <c r="F87">
+        <v>-0.06067015149600168</v>
+      </c>
+      <c r="G87">
+        <v>0.04398498937724298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1036425231748377</v>
+        <v>0.09133871689714583</v>
       </c>
       <c r="C88">
-        <v>-0.07374899455326396</v>
+        <v>0.06352322981091579</v>
       </c>
       <c r="D88">
-        <v>0.02241104504654014</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.005798176356348606</v>
+      </c>
+      <c r="E88">
+        <v>-0.04794567641502874</v>
+      </c>
+      <c r="F88">
+        <v>-0.06675121947788262</v>
+      </c>
+      <c r="G88">
+        <v>0.02285521772238002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1972835471496795</v>
+        <v>0.2268103915113923</v>
       </c>
       <c r="C89">
-        <v>0.3722996217570702</v>
+        <v>-0.377440206738572</v>
       </c>
       <c r="D89">
-        <v>0.03353630756787031</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02268200911861942</v>
+      </c>
+      <c r="E89">
+        <v>-0.06475593425250444</v>
+      </c>
+      <c r="F89">
+        <v>-0.07502332331993954</v>
+      </c>
+      <c r="G89">
+        <v>0.063363177623324</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1864964187922379</v>
+        <v>0.204449422367866</v>
       </c>
       <c r="C90">
-        <v>0.3303535608559302</v>
+        <v>-0.3092863863249721</v>
       </c>
       <c r="D90">
-        <v>0.03488075663234444</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02544135697732016</v>
+      </c>
+      <c r="E90">
+        <v>-0.07219279669560029</v>
+      </c>
+      <c r="F90">
+        <v>-0.03464836510675105</v>
+      </c>
+      <c r="G90">
+        <v>0.01469806296864913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1861954889964746</v>
+        <v>0.184234383627557</v>
       </c>
       <c r="C91">
-        <v>-0.1318931714669892</v>
+        <v>0.1465249069844746</v>
       </c>
       <c r="D91">
-        <v>0.08732933459770316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1035653462052478</v>
+      </c>
+      <c r="E91">
+        <v>-0.06263726784548052</v>
+      </c>
+      <c r="F91">
+        <v>-0.03110219781350071</v>
+      </c>
+      <c r="G91">
+        <v>-0.06027418288594666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1698125932413128</v>
+        <v>0.184856455643347</v>
       </c>
       <c r="C92">
-        <v>0.2770497755736061</v>
+        <v>-0.283412031920504</v>
       </c>
       <c r="D92">
-        <v>0.01575505176809039</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02023825846383111</v>
+      </c>
+      <c r="E92">
+        <v>-0.0728014730414918</v>
+      </c>
+      <c r="F92">
+        <v>-0.08122533873965364</v>
+      </c>
+      <c r="G92">
+        <v>0.008352727360229505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2098009551445928</v>
+        <v>0.2275127692082689</v>
       </c>
       <c r="C93">
-        <v>0.3308771270835464</v>
+        <v>-0.3148037585471309</v>
       </c>
       <c r="D93">
-        <v>0.03307616990876777</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01797340100158734</v>
+      </c>
+      <c r="E93">
+        <v>-0.04545277082972589</v>
+      </c>
+      <c r="F93">
+        <v>-0.03441659995140612</v>
+      </c>
+      <c r="G93">
+        <v>-0.02919711383886385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3441244961541564</v>
+        <v>0.3455759292077222</v>
       </c>
       <c r="C94">
-        <v>-0.1740240949452984</v>
+        <v>0.2012902993111929</v>
       </c>
       <c r="D94">
-        <v>0.4814131759189431</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4992876538853719</v>
+      </c>
+      <c r="E94">
+        <v>0.0089319215572127</v>
+      </c>
+      <c r="F94">
+        <v>0.4482633758976058</v>
+      </c>
+      <c r="G94">
+        <v>0.3457586661679547</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1095687282334409</v>
+        <v>0.08194533636217242</v>
       </c>
       <c r="C95">
-        <v>-0.07422287352995323</v>
+        <v>0.06375006413614864</v>
       </c>
       <c r="D95">
-        <v>-0.1391983140294589</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1705750579785416</v>
+      </c>
+      <c r="E95">
+        <v>0.1025339013995143</v>
+      </c>
+      <c r="F95">
+        <v>-0.2603258351351015</v>
+      </c>
+      <c r="G95">
+        <v>0.8520634025067901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1925540453945845</v>
+        <v>0.1857114671760328</v>
       </c>
       <c r="C98">
-        <v>-0.01939376424027212</v>
+        <v>0.04102559355707007</v>
       </c>
       <c r="D98">
-        <v>-0.1512273371600776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1963180037136693</v>
+      </c>
+      <c r="E98">
+        <v>0.1423113021597693</v>
+      </c>
+      <c r="F98">
+        <v>0.02966514568623498</v>
+      </c>
+      <c r="G98">
+        <v>-0.09466744082880538</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006577144570157329</v>
+        <v>0.005379558603406947</v>
       </c>
       <c r="C101">
-        <v>-0.03304955445008798</v>
+        <v>0.0292308364924556</v>
       </c>
       <c r="D101">
-        <v>0.01471073732752923</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01842989193685924</v>
+      </c>
+      <c r="E101">
+        <v>-0.04652551053766607</v>
+      </c>
+      <c r="F101">
+        <v>-0.08181090561109758</v>
+      </c>
+      <c r="G101">
+        <v>-0.007998214312661282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1208471667471501</v>
+        <v>0.1235606904490834</v>
       </c>
       <c r="C102">
-        <v>-0.0767373815067136</v>
+        <v>0.1031563521222918</v>
       </c>
       <c r="D102">
-        <v>0.02473850260594233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04015399777162135</v>
+      </c>
+      <c r="E102">
+        <v>0.001427077506269176</v>
+      </c>
+      <c r="F102">
+        <v>-0.04715144528952988</v>
+      </c>
+      <c r="G102">
+        <v>-0.01888918502848589</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
